--- a/biology/Zoologie/Anableps_microlepis/Anableps_microlepis.xlsx
+++ b/biology/Zoologie/Anableps_microlepis/Anableps_microlepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anableps microlepis est une espèce de poissons à quatre yeux que l'on trouve dans les eaux côtières de l'océan Atlantique, de Trinité et Tobago jusqu'au sud-est du Brésil[1],[2],[3]. Ils habitent principalement des environnements saumâtres tels que les estuaires, les marais de mangrove et les vasières de marée. Il atteint une longueur d'environ 30 cm[1],[4].
-Ce poisson se nourrit principalement de matière organique et de petits invertébrés. À Manzanilla, on a constaté que ce poisson se nourrit de crabes de sable (Emerita portoricensis) et de petits bivalves (Donax denticulatus)[5]. Lorsqu'ils cherchent de la nourriture, ils se déplacent le long de la côte en grands groupes allant d'une douzaine à plus d'une centaine de poissons[5].
-Comme les autres membres d'Anableps, cette espèce a des yeux divisés en deux lobes, ce qui lui permet de voir en même temps au-dessus et au-dessous de l'eau[6]. Ils se distinguent du sympatrique Anableps anableps par des écailles plus petites et plus nombreuses (76-83 par rapport à moins de 64 chez A. anableps)[4]. Ils ont également un gonopode gauche ou droit comme les autres membres des Anablepidae et donnent naissance à un enfant vivant[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anableps microlepis est une espèce de poissons à quatre yeux que l'on trouve dans les eaux côtières de l'océan Atlantique, de Trinité et Tobago jusqu'au sud-est du Brésil. Ils habitent principalement des environnements saumâtres tels que les estuaires, les marais de mangrove et les vasières de marée. Il atteint une longueur d'environ 30 cm,.
+Ce poisson se nourrit principalement de matière organique et de petits invertébrés. À Manzanilla, on a constaté que ce poisson se nourrit de crabes de sable (Emerita portoricensis) et de petits bivalves (Donax denticulatus). Lorsqu'ils cherchent de la nourriture, ils se déplacent le long de la côte en grands groupes allant d'une douzaine à plus d'une centaine de poissons.
+Comme les autres membres d'Anableps, cette espèce a des yeux divisés en deux lobes, ce qui lui permet de voir en même temps au-dessus et au-dessous de l'eau. Ils se distinguent du sympatrique Anableps anableps par des écailles plus petites et plus nombreuses (76-83 par rapport à moins de 64 chez A. anableps). Ils ont également un gonopode gauche ou droit comme les autres membres des Anablepidae et donnent naissance à un enfant vivant.
 </t>
         </is>
       </c>
